--- a/gdrive/Go_real_time_data/Go real-time demo questionnaire data.xlsx
+++ b/gdrive/Go_real_time_data/Go real-time demo questionnaire data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Timestamp</t>
   </si>
@@ -39,17 +39,24 @@
   <si>
     <t>Q2f. Teljes kutatási protokoll megtervezése, amely legalább emberi szintű validitást biztosít a belőle levont tudományos következtetéseknek</t>
   </si>
+  <si>
+    <t>Igen</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -65,9 +72,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -126,6 +139,35 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>43538.91831054398</v>
+      </c>
+      <c r="B2" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>3.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/gdrive/Go_real_time_data/Go real-time demo questionnaire data.xlsx
+++ b/gdrive/Go_real_time_data/Go real-time demo questionnaire data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Timestamp</t>
   </si>
@@ -141,7 +141,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>43538.91831054398</v>
+        <v>43538.918311076384</v>
       </c>
       <c r="B2" s="2">
         <v>10.0</v>
@@ -166,6 +166,35 @@
       </c>
       <c r="I2" s="2">
         <v>3.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>43538.92844815972</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>70.0</v>
       </c>
     </row>
   </sheetData>

--- a/gdrive/Go_real_time_data/Go real-time demo questionnaire data.xlsx
+++ b/gdrive/Go_real_time_data/Go real-time demo questionnaire data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Timestamp</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>Igen</t>
+  </si>
+  <si>
+    <t>Nem</t>
   </si>
 </sst>
 </file>
@@ -197,6 +200,35 @@
         <v>70.0</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>43539.544812974535</v>
+      </c>
+      <c r="B4" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2">
+        <v>201.0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>30.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/gdrive/Go_real_time_data/Go real-time demo questionnaire data.xlsx
+++ b/gdrive/Go_real_time_data/Go real-time demo questionnaire data.xlsx
@@ -202,7 +202,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>43539.544812974535</v>
+        <v>43539.5448133912</v>
       </c>
       <c r="B4" s="2">
         <v>50.0</v>

--- a/gdrive/Go_real_time_data/Go real-time demo questionnaire data.xlsx
+++ b/gdrive/Go_real_time_data/Go real-time demo questionnaire data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Timestamp</t>
   </si>
@@ -229,6 +229,43 @@
         <v>30.0</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>43539.65305167824</v>
+      </c>
+      <c r="B5" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>43539.653288333335</v>
+      </c>
+      <c r="B6" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>50.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/gdrive/Go_real_time_data/Go real-time demo questionnaire data.xlsx
+++ b/gdrive/Go_real_time_data/Go real-time demo questionnaire data.xlsx
@@ -245,7 +245,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>43539.653288333335</v>
+        <v>43539.6532887037</v>
       </c>
       <c r="B6" s="2">
         <v>40.0</v>

--- a/gdrive/Go_real_time_data/Go real-time demo questionnaire data.xlsx
+++ b/gdrive/Go_real_time_data/Go real-time demo questionnaire data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Timestamp</t>
   </si>
@@ -266,6 +266,35 @@
         <v>50.0</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>43540.580431863425</v>
+      </c>
+      <c r="B7" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>60.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/gdrive/Go_real_time_data/Go real-time demo questionnaire data.xlsx
+++ b/gdrive/Go_real_time_data/Go real-time demo questionnaire data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Timestamp</t>
   </si>
@@ -268,7 +268,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>43540.580431863425</v>
+        <v>43540.58043233796</v>
       </c>
       <c r="B7" s="2">
         <v>20.0</v>
@@ -293,6 +293,35 @@
       </c>
       <c r="I7" s="2">
         <v>60.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>43540.58548267361</v>
+      </c>
+      <c r="B8" s="2">
+        <v>23.0</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>20.0</v>
       </c>
     </row>
   </sheetData>

--- a/gdrive/Go_real_time_data/Go real-time demo questionnaire data.xlsx
+++ b/gdrive/Go_real_time_data/Go real-time demo questionnaire data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>Timestamp</t>
   </si>
@@ -324,6 +324,64 @@
         <v>20.0</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>43540.58834515046</v>
+      </c>
+      <c r="B9" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2">
+        <v>24.0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>24.0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>27.0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>43540.58847405092</v>
+      </c>
+      <c r="B10" s="2">
+        <v>5000.0</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3000.0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/gdrive/Go_real_time_data/Go real-time demo questionnaire data.xlsx
+++ b/gdrive/Go_real_time_data/Go real-time demo questionnaire data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Timestamp</t>
   </si>
@@ -354,33 +354,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1">
-        <v>43540.58847405092</v>
-      </c>
-      <c r="B10" s="2">
-        <v>5000.0</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="2">
-        <v>3000.0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>20.0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>31.0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>1.0</v>
-      </c>
+      <c r="A10" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/gdrive/Go_real_time_data/Go real-time demo questionnaire data.xlsx
+++ b/gdrive/Go_real_time_data/Go real-time demo questionnaire data.xlsx
@@ -10,8 +10,58 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="B10">
+      <text>
+        <t xml:space="preserve">Responder updated this value.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C10">
+      <text>
+        <t xml:space="preserve">Responder updated this value.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D10">
+      <text>
+        <t xml:space="preserve">Responder updated this value.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E10">
+      <text>
+        <t xml:space="preserve">Responder updated this value.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F10">
+      <text>
+        <t xml:space="preserve">Responder updated this value.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G10">
+      <text>
+        <t xml:space="preserve">Responder updated this value.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H10">
+      <text>
+        <t xml:space="preserve">Responder updated this value.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="I10">
+      <text>
+        <t xml:space="preserve">Responder updated this value.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>Timestamp</t>
   </si>
@@ -326,7 +376,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>43540.58834515046</v>
+        <v>43540.58834559028</v>
       </c>
       <c r="B9" s="2">
         <v>15.0</v>
@@ -354,9 +404,94 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1">
+        <v>43540.58847449074</v>
+      </c>
+      <c r="B10" s="2">
+        <v>5000.0</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3000.0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>43540.598349374995</v>
+      </c>
+      <c r="B11" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>43540.5997471875</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2000.0</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>60.0</v>
+      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/gdrive/Go_real_time_data/Go real-time demo questionnaire data.xlsx
+++ b/gdrive/Go_real_time_data/Go real-time demo questionnaire data.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>Timestamp</t>
   </si>
@@ -490,6 +490,64 @@
         <v>60.0</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>43540.60130355324</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1000.0</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>43540.60174322917</v>
+      </c>
+      <c r="B14" s="2">
+        <v>4000.0</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>20.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>

--- a/gdrive/Go_real_time_data/Go real-time demo questionnaire data.xlsx
+++ b/gdrive/Go_real_time_data/Go real-time demo questionnaire data.xlsx
@@ -463,7 +463,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1">
-        <v>43540.5997471875</v>
+        <v>43540.59974766204</v>
       </c>
       <c r="B12" s="2">
         <v>2000.0</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1">
-        <v>43540.60130355324</v>
+        <v>43540.60130407407</v>
       </c>
       <c r="B13" s="2">
         <v>1000.0</v>
@@ -521,7 +521,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>43540.60174322917</v>
+        <v>43540.601743680556</v>
       </c>
       <c r="B14" s="2">
         <v>4000.0</v>

--- a/gdrive/Go_real_time_data/Go real-time demo questionnaire data.xlsx
+++ b/gdrive/Go_real_time_data/Go real-time demo questionnaire data.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
   <si>
     <t>Timestamp</t>
   </si>
@@ -548,6 +548,61 @@
         <v>20.0</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>43541.74537730324</v>
+      </c>
+      <c r="B15" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>43541.74575929398</v>
+      </c>
+      <c r="B16" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>5.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>

--- a/gdrive/Go_real_time_data/Go real-time demo questionnaire data.xlsx
+++ b/gdrive/Go_real_time_data/Go real-time demo questionnaire data.xlsx
@@ -550,7 +550,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <v>43541.74537730324</v>
+        <v>43541.7453778125</v>
       </c>
       <c r="B15" s="2">
         <v>10.0</v>
@@ -576,7 +576,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1">
-        <v>43541.74575929398</v>
+        <v>43541.74575976851</v>
       </c>
       <c r="B16" s="2">
         <v>40.0</v>

--- a/gdrive/Go_real_time_data/Go real-time demo questionnaire data.xlsx
+++ b/gdrive/Go_real_time_data/Go real-time demo questionnaire data.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t>Timestamp</t>
   </si>
@@ -603,6 +603,35 @@
         <v>5.0</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>43541.79049547453</v>
+      </c>
+      <c r="B17" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>40.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>

--- a/gdrive/Go_real_time_data/Go real-time demo questionnaire data.xlsx
+++ b/gdrive/Go_real_time_data/Go real-time demo questionnaire data.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
   <si>
     <t>Timestamp</t>
   </si>
@@ -632,6 +632,35 @@
         <v>40.0</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>43541.817836041664</v>
+      </c>
+      <c r="B18" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2">
+        <v>70.0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>10.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>

--- a/gdrive/Go_real_time_data/Go real-time demo questionnaire data.xlsx
+++ b/gdrive/Go_real_time_data/Go real-time demo questionnaire data.xlsx
@@ -634,7 +634,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1">
-        <v>43541.817836041664</v>
+        <v>43541.817837256945</v>
       </c>
       <c r="B18" s="2">
         <v>10.0</v>

--- a/gdrive/Go_real_time_data/Go real-time demo questionnaire data.xlsx
+++ b/gdrive/Go_real_time_data/Go real-time demo questionnaire data.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
   <si>
     <t>Timestamp</t>
   </si>
@@ -661,6 +661,35 @@
         <v>10.0</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>43542.59784307871</v>
+      </c>
+      <c r="B19" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>31.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>

--- a/gdrive/Go_real_time_data/Go real-time demo questionnaire data.xlsx
+++ b/gdrive/Go_real_time_data/Go real-time demo questionnaire data.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
   <si>
     <t>Timestamp</t>
   </si>
@@ -690,6 +690,26 @@
         <v>31.0</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>43542.66298501157</v>
+      </c>
+      <c r="B20" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>31.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>

--- a/gdrive/Go_real_time_data/Go real-time demo questionnaire data.xlsx
+++ b/gdrive/Go_real_time_data/Go real-time demo questionnaire data.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
   <si>
     <t>Timestamp</t>
   </si>
@@ -710,6 +710,26 @@
         <v>31.0</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>43542.664325000005</v>
+      </c>
+      <c r="B21" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>21.0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>12.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>

--- a/gdrive/Go_real_time_data/Go real-time demo questionnaire data.xlsx
+++ b/gdrive/Go_real_time_data/Go real-time demo questionnaire data.xlsx
@@ -56,12 +56,47 @@
         <t xml:space="preserve">Responder updated this value.</t>
       </text>
     </comment>
+    <comment authorId="0" ref="B25">
+      <text>
+        <t xml:space="preserve">Responder updated this value.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C25">
+      <text>
+        <t xml:space="preserve">Responder updated this value.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D25">
+      <text>
+        <t xml:space="preserve">Responder updated this value.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E25">
+      <text>
+        <t xml:space="preserve">Responder updated this value.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F25">
+      <text>
+        <t xml:space="preserve">Responder updated this value.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G25">
+      <text>
+        <t xml:space="preserve">Responder updated this value.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H25">
+      <text>
+        <t xml:space="preserve">Responder updated this value.</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="11">
   <si>
     <t>Timestamp</t>
   </si>
@@ -730,6 +765,341 @@
         <v>12.0</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>43540.58043233796</v>
+      </c>
+      <c r="B22" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>43540.58548267361</v>
+      </c>
+      <c r="B23" s="2">
+        <v>23.0</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>43540.58834559028</v>
+      </c>
+      <c r="B24" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2">
+        <v>24.0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>24.0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>27.0</v>
+      </c>
+      <c r="H24" s="2">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>43540.58847449074</v>
+      </c>
+      <c r="B25" s="2">
+        <v>5000.0</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2">
+        <v>3000.0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G25" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>43540.598349374995</v>
+      </c>
+      <c r="B26" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>43540.59974766204</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2000.0</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>43540.60130407407</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1000.0</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="G28" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>43540.601743680556</v>
+      </c>
+      <c r="B29" s="2">
+        <v>4000.0</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="F29" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="G29" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1">
+        <v>43541.7453778125</v>
+      </c>
+      <c r="B30" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="H30" s="2">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1">
+        <v>43541.74575976851</v>
+      </c>
+      <c r="B31" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="G31" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1">
+        <v>43541.79049547453</v>
+      </c>
+      <c r="B32" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F32" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="G32" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="H32" s="2">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1">
+        <v>43541.817837256945</v>
+      </c>
+      <c r="B33" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2">
+        <v>70.0</v>
+      </c>
+      <c r="E33" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F33" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="G33" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="H33" s="2">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1">
+        <v>43542.59784307871</v>
+      </c>
+      <c r="B34" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="F34" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="G34" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="H34" s="2">
+        <v>13.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>

--- a/gdrive/Go_real_time_data/Go real-time demo questionnaire data.xlsx
+++ b/gdrive/Go_real_time_data/Go real-time demo questionnaire data.xlsx
@@ -56,47 +56,12 @@
         <t xml:space="preserve">Responder updated this value.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B25">
-      <text>
-        <t xml:space="preserve">Responder updated this value.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="C25">
-      <text>
-        <t xml:space="preserve">Responder updated this value.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D25">
-      <text>
-        <t xml:space="preserve">Responder updated this value.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="E25">
-      <text>
-        <t xml:space="preserve">Responder updated this value.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="F25">
-      <text>
-        <t xml:space="preserve">Responder updated this value.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="G25">
-      <text>
-        <t xml:space="preserve">Responder updated this value.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H25">
-      <text>
-        <t xml:space="preserve">Responder updated this value.</t>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
   <si>
     <t>Timestamp</t>
   </si>
@@ -765,341 +730,6 @@
         <v>12.0</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1">
-        <v>43540.58043233796</v>
-      </c>
-      <c r="B22" s="2">
-        <v>20.0</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="E22" s="2">
-        <v>20.0</v>
-      </c>
-      <c r="F22" s="2">
-        <v>30.0</v>
-      </c>
-      <c r="G22" s="2">
-        <v>40.0</v>
-      </c>
-      <c r="H22" s="2">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1">
-        <v>43540.58548267361</v>
-      </c>
-      <c r="B23" s="2">
-        <v>23.0</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="E23" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="F23" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="G23" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="H23" s="2">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1">
-        <v>43540.58834559028</v>
-      </c>
-      <c r="B24" s="2">
-        <v>15.0</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="2">
-        <v>24.0</v>
-      </c>
-      <c r="E24" s="2">
-        <v>24.0</v>
-      </c>
-      <c r="F24" s="2">
-        <v>26.0</v>
-      </c>
-      <c r="G24" s="2">
-        <v>27.0</v>
-      </c>
-      <c r="H24" s="2">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1">
-        <v>43540.58847449074</v>
-      </c>
-      <c r="B25" s="2">
-        <v>5000.0</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="2">
-        <v>3000.0</v>
-      </c>
-      <c r="E25" s="2">
-        <v>20.0</v>
-      </c>
-      <c r="F25" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G25" s="2">
-        <v>31.0</v>
-      </c>
-      <c r="H25" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1">
-        <v>43540.598349374995</v>
-      </c>
-      <c r="B26" s="2">
-        <v>20.0</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="E26" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="F26" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="G26" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="H26" s="2">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1">
-        <v>43540.59974766204</v>
-      </c>
-      <c r="B27" s="2">
-        <v>2000.0</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="E27" s="2">
-        <v>20.0</v>
-      </c>
-      <c r="F27" s="2">
-        <v>30.0</v>
-      </c>
-      <c r="G27" s="2">
-        <v>40.0</v>
-      </c>
-      <c r="H27" s="2">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1">
-        <v>43540.60130407407</v>
-      </c>
-      <c r="B28" s="2">
-        <v>1000.0</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2">
-        <v>100.0</v>
-      </c>
-      <c r="E28" s="2">
-        <v>100.0</v>
-      </c>
-      <c r="F28" s="2">
-        <v>100.0</v>
-      </c>
-      <c r="G28" s="2">
-        <v>100.0</v>
-      </c>
-      <c r="H28" s="2">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1">
-        <v>43540.601743680556</v>
-      </c>
-      <c r="B29" s="2">
-        <v>4000.0</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="2">
-        <v>40.0</v>
-      </c>
-      <c r="E29" s="2">
-        <v>40.0</v>
-      </c>
-      <c r="F29" s="2">
-        <v>40.0</v>
-      </c>
-      <c r="G29" s="2">
-        <v>40.0</v>
-      </c>
-      <c r="H29" s="2">
-        <v>40.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1">
-        <v>43541.7453778125</v>
-      </c>
-      <c r="B30" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="2">
-        <v>30.0</v>
-      </c>
-      <c r="E30" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="F30" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="H30" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1">
-        <v>43541.74575976851</v>
-      </c>
-      <c r="B31" s="2">
-        <v>40.0</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="E31" s="2">
-        <v>40.0</v>
-      </c>
-      <c r="F31" s="2">
-        <v>50.0</v>
-      </c>
-      <c r="G31" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="H31" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1">
-        <v>43541.79049547453</v>
-      </c>
-      <c r="B32" s="2">
-        <v>20.0</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="2">
-        <v>100.0</v>
-      </c>
-      <c r="E32" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F32" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="G32" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="H32" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1">
-        <v>43541.817837256945</v>
-      </c>
-      <c r="B33" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="2">
-        <v>70.0</v>
-      </c>
-      <c r="E33" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="F33" s="2">
-        <v>50.0</v>
-      </c>
-      <c r="G33" s="2">
-        <v>40.0</v>
-      </c>
-      <c r="H33" s="2">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1">
-        <v>43542.59784307871</v>
-      </c>
-      <c r="B34" s="2">
-        <v>20.0</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="2">
-        <v>40.0</v>
-      </c>
-      <c r="E34" s="2">
-        <v>30.0</v>
-      </c>
-      <c r="F34" s="2">
-        <v>31.0</v>
-      </c>
-      <c r="G34" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="H34" s="2">
-        <v>13.0</v>
-      </c>
-    </row>
   </sheetData>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>

--- a/gdrive/Go_real_time_data/Go real-time demo questionnaire data.xlsx
+++ b/gdrive/Go_real_time_data/Go real-time demo questionnaire data.xlsx
@@ -663,7 +663,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1">
-        <v>43542.59784307871</v>
+        <v>43542.59784351852</v>
       </c>
       <c r="B19" s="2">
         <v>20.0</v>
@@ -692,7 +692,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1">
-        <v>43542.66298501157</v>
+        <v>43542.66298545139</v>
       </c>
       <c r="B20" s="2">
         <v>20.0</v>
@@ -712,7 +712,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1">
-        <v>43542.664325000005</v>
+        <v>43542.66432548611</v>
       </c>
       <c r="B21" s="2">
         <v>30.0</v>

--- a/gdrive/Go_real_time_data/Go real-time demo questionnaire data.xlsx
+++ b/gdrive/Go_real_time_data/Go real-time demo questionnaire data.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="11">
   <si>
     <t>Timestamp</t>
   </si>
@@ -730,6 +730,199 @@
         <v>12.0</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>43540.601743680556</v>
+      </c>
+      <c r="B22" s="2">
+        <v>4000.0</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>43541.7453778125</v>
+      </c>
+      <c r="B23" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>43541.74575976851</v>
+      </c>
+      <c r="B24" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>43541.79049547453</v>
+      </c>
+      <c r="B25" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="G25" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>43541.817837256945</v>
+      </c>
+      <c r="B26" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2">
+        <v>70.0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>43542.59784351852</v>
+      </c>
+      <c r="B27" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>43542.66298545139</v>
+      </c>
+      <c r="B28" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>43542.66432548611</v>
+      </c>
+      <c r="B29" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>21.0</v>
+      </c>
+      <c r="F29" s="2">
+        <v>12.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>

--- a/gdrive/Go_real_time_data/Go real-time demo questionnaire data.xlsx
+++ b/gdrive/Go_real_time_data/Go real-time demo questionnaire data.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
   <si>
     <t>Timestamp</t>
   </si>
@@ -730,199 +730,6 @@
         <v>12.0</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1">
-        <v>43540.601743680556</v>
-      </c>
-      <c r="B22" s="2">
-        <v>4000.0</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2">
-        <v>40.0</v>
-      </c>
-      <c r="E22" s="2">
-        <v>40.0</v>
-      </c>
-      <c r="F22" s="2">
-        <v>40.0</v>
-      </c>
-      <c r="G22" s="2">
-        <v>40.0</v>
-      </c>
-      <c r="H22" s="2">
-        <v>40.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1">
-        <v>43541.7453778125</v>
-      </c>
-      <c r="B23" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="2">
-        <v>30.0</v>
-      </c>
-      <c r="E23" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="F23" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="H23" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1">
-        <v>43541.74575976851</v>
-      </c>
-      <c r="B24" s="2">
-        <v>40.0</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="E24" s="2">
-        <v>40.0</v>
-      </c>
-      <c r="F24" s="2">
-        <v>50.0</v>
-      </c>
-      <c r="G24" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="H24" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1">
-        <v>43541.79049547453</v>
-      </c>
-      <c r="B25" s="2">
-        <v>20.0</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="2">
-        <v>100.0</v>
-      </c>
-      <c r="E25" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F25" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="G25" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="H25" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1">
-        <v>43541.817837256945</v>
-      </c>
-      <c r="B26" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2">
-        <v>70.0</v>
-      </c>
-      <c r="E26" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="F26" s="2">
-        <v>50.0</v>
-      </c>
-      <c r="G26" s="2">
-        <v>40.0</v>
-      </c>
-      <c r="H26" s="2">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1">
-        <v>43542.59784351852</v>
-      </c>
-      <c r="B27" s="2">
-        <v>20.0</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2">
-        <v>40.0</v>
-      </c>
-      <c r="E27" s="2">
-        <v>30.0</v>
-      </c>
-      <c r="F27" s="2">
-        <v>31.0</v>
-      </c>
-      <c r="G27" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="H27" s="2">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1">
-        <v>43542.66298545139</v>
-      </c>
-      <c r="B28" s="2">
-        <v>20.0</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="2">
-        <v>40.0</v>
-      </c>
-      <c r="E28" s="2">
-        <v>30.0</v>
-      </c>
-      <c r="F28" s="2">
-        <v>31.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1">
-        <v>43542.66432548611</v>
-      </c>
-      <c r="B29" s="2">
-        <v>30.0</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="2">
-        <v>40.0</v>
-      </c>
-      <c r="E29" s="2">
-        <v>21.0</v>
-      </c>
-      <c r="F29" s="2">
-        <v>12.0</v>
-      </c>
-    </row>
   </sheetData>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>

--- a/gdrive/Go_real_time_data/Go real-time demo questionnaire data.xlsx
+++ b/gdrive/Go_real_time_data/Go real-time demo questionnaire data.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
   <si>
     <t>Timestamp</t>
   </si>
@@ -294,52 +294,441 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1">
+        <v>43539.6532887037</v>
+      </c>
+      <c r="B6" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>50.0</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1">
+        <v>43540.58043233796</v>
+      </c>
+      <c r="B7" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>60.0</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1">
+        <v>43540.58548267361</v>
+      </c>
+      <c r="B8" s="2">
+        <v>23.0</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1">
+        <v>43540.58834559028</v>
+      </c>
+      <c r="B9" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2">
+        <v>24.0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>24.0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>27.0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1">
+        <v>43540.58847449074</v>
+      </c>
+      <c r="B10" s="2">
+        <v>5000.0</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3000.0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1">
+        <v>43540.598349374995</v>
+      </c>
+      <c r="B11" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1">
+        <v>43540.59974766204</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2000.0</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>60.0</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1">
+        <v>43540.60130407407</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1000.0</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <v>43540.601743680556</v>
+      </c>
+      <c r="B14" s="2">
+        <v>4000.0</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1">
+        <v>43541.7453778125</v>
+      </c>
+      <c r="B15" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1">
+        <v>43541.74575976851</v>
+      </c>
+      <c r="B16" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="1"/>
+      <c r="A17" s="1">
+        <v>43541.79049547453</v>
+      </c>
+      <c r="B17" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>40.0</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1">
+        <v>43541.817837256945</v>
+      </c>
+      <c r="B18" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2">
+        <v>70.0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1">
+        <v>43542.59784351852</v>
+      </c>
+      <c r="B19" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>31.0</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1">
+        <v>43542.66298545139</v>
+      </c>
+      <c r="B20" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>31.0</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1">
+        <v>43542.66432548611</v>
+      </c>
+      <c r="B21" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>21.0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>12.0</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId2"/>

--- a/gdrive/Go_real_time_data/Go real-time demo questionnaire data.xlsx
+++ b/gdrive/Go_real_time_data/Go real-time demo questionnaire data.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Timestamp</t>
   </si>
@@ -346,389 +346,46 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1">
-        <v>43540.58548267361</v>
-      </c>
-      <c r="B8" s="2">
-        <v>23.0</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>20.0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>20.0</v>
-      </c>
+      <c r="A8" s="1"/>
     </row>
     <row r="9">
-      <c r="A9" s="1">
-        <v>43540.58834559028</v>
-      </c>
-      <c r="B9" s="2">
-        <v>15.0</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2">
-        <v>24.0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>24.0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>26.0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>27.0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>20.0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>10.0</v>
-      </c>
+      <c r="A9" s="1"/>
     </row>
     <row r="10">
-      <c r="A10" s="1">
-        <v>43540.58847449074</v>
-      </c>
-      <c r="B10" s="2">
-        <v>5000.0</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="2">
-        <v>3000.0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>20.0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>31.0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>1.0</v>
-      </c>
+      <c r="A10" s="1"/>
     </row>
     <row r="11">
-      <c r="A11" s="1">
-        <v>43540.598349374995</v>
-      </c>
-      <c r="B11" s="2">
-        <v>20.0</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>14.0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>16.0</v>
-      </c>
+      <c r="A11" s="1"/>
     </row>
     <row r="12">
-      <c r="A12" s="1">
-        <v>43540.59974766204</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2000.0</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>20.0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>30.0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>40.0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>50.0</v>
-      </c>
-      <c r="I12" s="2">
-        <v>60.0</v>
-      </c>
+      <c r="A12" s="1"/>
     </row>
     <row r="13">
-      <c r="A13" s="1">
-        <v>43540.60130407407</v>
-      </c>
-      <c r="B13" s="2">
-        <v>1000.0</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="2">
-        <v>100.0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>100.0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>100.0</v>
-      </c>
-      <c r="G13" s="2">
-        <v>100.0</v>
-      </c>
-      <c r="H13" s="2">
-        <v>100.0</v>
-      </c>
-      <c r="I13" s="2">
-        <v>100.0</v>
-      </c>
+      <c r="A13" s="1"/>
     </row>
     <row r="14">
-      <c r="A14" s="1">
-        <v>43540.601743680556</v>
-      </c>
-      <c r="B14" s="2">
-        <v>4000.0</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2">
-        <v>40.0</v>
-      </c>
-      <c r="E14" s="2">
-        <v>40.0</v>
-      </c>
-      <c r="F14" s="2">
-        <v>40.0</v>
-      </c>
-      <c r="G14" s="2">
-        <v>40.0</v>
-      </c>
-      <c r="H14" s="2">
-        <v>40.0</v>
-      </c>
-      <c r="I14" s="2">
-        <v>20.0</v>
-      </c>
+      <c r="A14" s="1"/>
     </row>
     <row r="15">
-      <c r="A15" s="1">
-        <v>43541.7453778125</v>
-      </c>
-      <c r="B15" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2">
-        <v>30.0</v>
-      </c>
-      <c r="E15" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="F15" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="H15" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="I15" s="2">
-        <v>10.0</v>
-      </c>
+      <c r="A15" s="1"/>
     </row>
     <row r="16">
-      <c r="A16" s="1">
-        <v>43541.74575976851</v>
-      </c>
-      <c r="B16" s="2">
-        <v>40.0</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="E16" s="2">
-        <v>40.0</v>
-      </c>
-      <c r="F16" s="2">
-        <v>50.0</v>
-      </c>
-      <c r="G16" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="H16" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I16" s="2">
-        <v>5.0</v>
-      </c>
+      <c r="A16" s="1"/>
     </row>
     <row r="17">
-      <c r="A17" s="1">
-        <v>43541.79049547453</v>
-      </c>
-      <c r="B17" s="2">
-        <v>20.0</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="2">
-        <v>100.0</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F17" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="G17" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="H17" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="I17" s="2">
-        <v>40.0</v>
-      </c>
+      <c r="A17" s="1"/>
     </row>
     <row r="18">
-      <c r="A18" s="1">
-        <v>43541.817837256945</v>
-      </c>
-      <c r="B18" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="2">
-        <v>70.0</v>
-      </c>
-      <c r="E18" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="F18" s="2">
-        <v>50.0</v>
-      </c>
-      <c r="G18" s="2">
-        <v>40.0</v>
-      </c>
-      <c r="H18" s="2">
-        <v>30.0</v>
-      </c>
-      <c r="I18" s="2">
-        <v>10.0</v>
-      </c>
+      <c r="A18" s="1"/>
     </row>
     <row r="19">
-      <c r="A19" s="1">
-        <v>43542.59784351852</v>
-      </c>
-      <c r="B19" s="2">
-        <v>20.0</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2">
-        <v>40.0</v>
-      </c>
-      <c r="E19" s="2">
-        <v>30.0</v>
-      </c>
-      <c r="F19" s="2">
-        <v>31.0</v>
-      </c>
-      <c r="G19" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="H19" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="I19" s="2">
-        <v>31.0</v>
-      </c>
+      <c r="A19" s="1"/>
     </row>
     <row r="20">
-      <c r="A20" s="1">
-        <v>43542.66298545139</v>
-      </c>
-      <c r="B20" s="2">
-        <v>20.0</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="2">
-        <v>40.0</v>
-      </c>
-      <c r="E20" s="2">
-        <v>30.0</v>
-      </c>
-      <c r="F20" s="2">
-        <v>31.0</v>
-      </c>
+      <c r="A20" s="1"/>
     </row>
     <row r="21">
-      <c r="A21" s="1">
-        <v>43542.66432548611</v>
-      </c>
-      <c r="B21" s="2">
-        <v>30.0</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2">
-        <v>40.0</v>
-      </c>
-      <c r="E21" s="2">
-        <v>21.0</v>
-      </c>
-      <c r="F21" s="2">
-        <v>12.0</v>
-      </c>
+      <c r="A21" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId2"/>

--- a/gdrive/Go_real_time_data/Go real-time demo questionnaire data.xlsx
+++ b/gdrive/Go_real_time_data/Go real-time demo questionnaire data.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
   <si>
     <t>Timestamp</t>
   </si>
@@ -346,46 +346,389 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1">
+        <v>43540.58548267361</v>
+      </c>
+      <c r="B8" s="2">
+        <v>23.0</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1">
+        <v>43540.58834559028</v>
+      </c>
+      <c r="B9" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2">
+        <v>24.0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>24.0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>27.0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1">
+        <v>43540.58847449074</v>
+      </c>
+      <c r="B10" s="2">
+        <v>5000.0</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3000.0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1">
+        <v>43540.598349374995</v>
+      </c>
+      <c r="B11" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1">
+        <v>43540.59974766204</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2000.0</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>60.0</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1">
+        <v>43540.60130407407</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1000.0</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <v>43540.601743680556</v>
+      </c>
+      <c r="B14" s="2">
+        <v>4000.0</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1">
+        <v>43541.7453778125</v>
+      </c>
+      <c r="B15" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1">
+        <v>43541.74575976851</v>
+      </c>
+      <c r="B16" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="1"/>
+      <c r="A17" s="1">
+        <v>43541.79049547453</v>
+      </c>
+      <c r="B17" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>40.0</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1">
+        <v>43541.817837256945</v>
+      </c>
+      <c r="B18" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2">
+        <v>70.0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1">
+        <v>43542.59784351852</v>
+      </c>
+      <c r="B19" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>31.0</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1">
+        <v>43542.66298545139</v>
+      </c>
+      <c r="B20" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>31.0</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1">
+        <v>43542.66432548611</v>
+      </c>
+      <c r="B21" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>21.0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>12.0</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId2"/>
